--- a/Ignorar_Backup/Riesgo/DataTarea_Exogenas_Riesgo6.xlsx
+++ b/Ignorar_Backup/Riesgo/DataTarea_Exogenas_Riesgo6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2663\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE7D6F6-C586-456C-8D03-BC313EE023BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4772B2D9-3DC4-4AEE-B1BE-414889626685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3135" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -521,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +567,13 @@
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>0.14486599999999999</v>
+        <v>0.19486599999999998</v>
       </c>
       <c r="C3" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>-1.074276733848583</v>
+        <v>-0.87427673384858307</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="16"/>
@@ -585,13 +585,13 @@
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>0.32845099999999999</v>
+        <v>0.37845099999999998</v>
       </c>
       <c r="C4" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>-0.65011217612916594</v>
+        <v>-0.45011217612916593</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="16"/>
@@ -604,13 +604,13 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>0.46173500000000001</v>
+        <v>0.51173500000000005</v>
       </c>
       <c r="C5" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>-0.27235981321536906</v>
+        <v>-7.2359813215369051E-2</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="16"/>
@@ -623,13 +623,13 @@
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>0.52</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D6" s="5">
-        <v>3.6009422767286248E-2</v>
+        <v>0.23600942276728626</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="16"/>
@@ -642,13 +642,13 @@
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D7" s="5">
-        <v>0.27488031370019761</v>
+        <v>0.47488031370019762</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="16"/>
@@ -661,13 +661,13 @@
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C8" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>0.45333069199637033</v>
+        <v>0.65333069199637039</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="16"/>
@@ -680,13 +680,13 @@
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C9" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>0.58296314515597392</v>
+        <v>0.78296314515597398</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="16"/>
@@ -699,13 +699,13 @@
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C10" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
-        <v>0.67408946041646556</v>
+        <v>0.87408946041646551</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="16"/>
